--- a/reports/_reports finali/report_finale_immagini_T2.xlsx
+++ b/reports/_reports finali/report_finale_immagini_T2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Campus\materiale tesi\progetto_klara_valerio\INPH_2\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Campus\materiale tesi\progetto_klara_valerio\INPH_2\reports\_reports finali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9544D809-95CD-4359-A42F-4C5ADD9CD0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84426739-F8B2-4FE8-81C3-55B55D723ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="82">
   <si>
     <t>model</t>
   </si>
@@ -216,17 +216,68 @@
     <t>val</t>
   </si>
   <si>
-    <t>Performance sul Validation  per T2</t>
-  </si>
-  <si>
-    <t>Performance sul validation per T1</t>
+    <t xml:space="preserve"> validation performance T1</t>
+  </si>
+  <si>
+    <t>Validation performance T2</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>test T1</t>
+  </si>
+  <si>
+    <t>test T2</t>
+  </si>
+  <si>
+    <t>EffincentNet-b0</t>
+  </si>
+  <si>
+    <t>EfficentNet-b1</t>
+  </si>
+  <si>
+    <t>ResNet-10</t>
+  </si>
+  <si>
+    <t>ResNet-18</t>
+  </si>
+  <si>
+    <t>ResNet-18-Fc</t>
+  </si>
+  <si>
+    <t>ResNet-34</t>
+  </si>
+  <si>
+    <t>ResNet-50</t>
+  </si>
+  <si>
+    <t>ResNet-101</t>
+  </si>
+  <si>
+    <t>SeResNet-50</t>
+  </si>
+  <si>
+    <t>SeResNet-101</t>
+  </si>
+  <si>
+    <t>SeResNext-50</t>
+  </si>
+  <si>
+    <t>SeResNext-101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SeNet-154</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +298,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -256,7 +312,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -279,11 +335,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -291,11 +440,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,18 +766,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E63" sqref="B63:E63"/>
+    <sheetView tabSelected="1" topLeftCell="L35" zoomScale="82" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49:Q61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
@@ -2629,28 +2817,37 @@
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="Q27" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2687,59 +2884,83 @@
       <c r="N28" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="Q28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="14">
         <v>88.12</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="7">
         <v>79.97</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="7">
         <v>73.08</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="7">
         <v>72.510000000000005</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="7">
         <v>77.2</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="7">
         <v>81.06</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="7">
         <v>4.62</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="7">
         <v>10.220000000000001</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="7">
         <v>10.46</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="7">
         <v>17.62</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="7">
         <v>12.84</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="8">
         <v>17.14</v>
       </c>
+      <c r="Q29" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="9">
         <v>82.87</v>
       </c>
       <c r="D30">
@@ -2772,18 +2993,21 @@
       <c r="M30">
         <v>27.11</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="10">
         <v>13.64</v>
       </c>
+      <c r="Q30" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="9">
         <v>83.32</v>
       </c>
       <c r="D31">
@@ -2816,18 +3040,21 @@
       <c r="M31">
         <v>34.07</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="10">
         <v>12.34</v>
       </c>
+      <c r="Q31" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="9">
         <v>87.19</v>
       </c>
       <c r="D32">
@@ -2860,18 +3087,21 @@
       <c r="M32">
         <v>17.04</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="10">
         <v>12.35</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="Q32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="9">
         <v>84.98</v>
       </c>
       <c r="D33">
@@ -2904,18 +3134,21 @@
       <c r="M33">
         <v>14.49</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="10">
         <v>13.82</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="Q33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="9">
         <v>83.91</v>
       </c>
       <c r="D34">
@@ -2948,18 +3181,21 @@
       <c r="M34">
         <v>14.23</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="10">
         <v>11.32</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="Q34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="9">
         <v>83.84</v>
       </c>
       <c r="D35">
@@ -2992,18 +3228,21 @@
       <c r="M35">
         <v>28.35</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="10">
         <v>8.5500000000000007</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="Q35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="9">
         <v>87.31</v>
       </c>
       <c r="D36">
@@ -3036,18 +3275,21 @@
       <c r="M36">
         <v>17.82</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="10">
         <v>6.77</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="Q36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="9">
         <v>86.49</v>
       </c>
       <c r="D37">
@@ -3080,18 +3322,21 @@
       <c r="M37">
         <v>21.6</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="10">
         <v>10.78</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="Q37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="9">
         <v>78.260000000000005</v>
       </c>
       <c r="D38">
@@ -3124,18 +3369,21 @@
       <c r="M38">
         <v>34.700000000000003</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="10">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="Q38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="9">
         <v>85.89</v>
       </c>
       <c r="D39">
@@ -3168,18 +3416,21 @@
       <c r="M39">
         <v>18.45</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="10">
         <v>14.87</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="Q39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="9">
         <v>85.26</v>
       </c>
       <c r="D40">
@@ -3212,18 +3463,21 @@
       <c r="M40">
         <v>12.98</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="10">
         <v>19.690000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="Q40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="9">
         <v>81.33</v>
       </c>
       <c r="D41">
@@ -3256,18 +3510,21 @@
       <c r="M41">
         <v>12.71</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="10">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="Q41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="9">
         <v>86.48</v>
       </c>
       <c r="D42">
@@ -3300,115 +3557,201 @@
       <c r="M42">
         <v>20.23</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="10">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="11">
         <v>57.75</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="12">
         <v>54.1</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="12">
         <v>36.950000000000003</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="12">
         <v>35.11</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="12">
         <v>50</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="12">
         <v>54.87</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="12">
         <v>9.75</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="12">
         <v>14.57</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="12">
         <v>19.37</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="12">
         <v>14.8</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="12">
         <v>34.92</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="13">
         <v>36.35</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Q47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="Q48" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="14">
         <v>87.3</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="7">
         <v>78.63</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="7">
         <v>70.069999999999993</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="7">
         <v>67.8</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="7">
         <v>74.11</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="8">
         <v>80.86</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="7">
         <v>7.36</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="7">
         <v>9.32</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="7">
         <v>11.24</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="7">
         <v>14.23</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="7">
         <v>13.21</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="8">
         <v>10.88</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="Q50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="9">
         <v>85.6</v>
       </c>
       <c r="D51">
@@ -3423,7 +3766,7 @@
       <c r="G51">
         <v>76.61</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="10">
         <v>77.81</v>
       </c>
       <c r="I51">
@@ -3441,18 +3784,21 @@
       <c r="M51">
         <v>14.76</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="10">
         <v>15.39</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="Q51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="9">
         <v>77.5</v>
       </c>
       <c r="D52">
@@ -3467,7 +3813,7 @@
       <c r="G52">
         <v>51.61</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="10">
         <v>84</v>
       </c>
       <c r="I52">
@@ -3485,18 +3831,21 @@
       <c r="M52">
         <v>37.200000000000003</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="10">
         <v>15.26</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="Q52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="9">
         <v>72.81</v>
       </c>
       <c r="D53">
@@ -3511,7 +3860,7 @@
       <c r="G53">
         <v>42.32</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="10">
         <v>88.24</v>
       </c>
       <c r="I53">
@@ -3529,18 +3878,21 @@
       <c r="M53">
         <v>39</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="10">
         <v>12.94</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="Q53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="9">
         <v>86.4</v>
       </c>
       <c r="D54">
@@ -3555,7 +3907,7 @@
       <c r="G54">
         <v>58.93</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="10">
         <v>86.24</v>
       </c>
       <c r="I54">
@@ -3573,18 +3925,21 @@
       <c r="M54">
         <v>11.04</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="10">
         <v>8.1300000000000008</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="Q54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="9">
         <v>86.14</v>
       </c>
       <c r="D55">
@@ -3599,7 +3954,7 @@
       <c r="G55">
         <v>64.11</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="10">
         <v>82.86</v>
       </c>
       <c r="I55">
@@ -3617,18 +3972,21 @@
       <c r="M55">
         <v>22.78</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="10">
         <v>8.86</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="Q55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="9">
         <v>86.26</v>
       </c>
       <c r="D56">
@@ -3643,7 +4001,7 @@
       <c r="G56">
         <v>68.569999999999993</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="10">
         <v>85.48</v>
       </c>
       <c r="I56">
@@ -3661,18 +4019,21 @@
       <c r="M56">
         <v>8.84</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="10">
         <v>9.17</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="Q56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="9">
         <v>83.82</v>
       </c>
       <c r="D57">
@@ -3687,7 +4048,7 @@
       <c r="G57">
         <v>74.11</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="10">
         <v>75.099999999999994</v>
       </c>
       <c r="I57">
@@ -3705,18 +4066,21 @@
       <c r="M57">
         <v>12.8</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="10">
         <v>11.44</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="Q57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="9">
         <v>74.680000000000007</v>
       </c>
       <c r="D58">
@@ -3731,7 +4095,7 @@
       <c r="G58">
         <v>56.07</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="10">
         <v>85.71</v>
       </c>
       <c r="I58">
@@ -3749,18 +4113,21 @@
       <c r="M58">
         <v>27.6</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="10">
         <v>9.73</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="Q58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="9">
         <v>78.38</v>
       </c>
       <c r="D59">
@@ -3775,7 +4142,7 @@
       <c r="G59">
         <v>61.79</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="10">
         <v>83.33</v>
       </c>
       <c r="I59">
@@ -3793,18 +4160,21 @@
       <c r="M59">
         <v>18.190000000000001</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="10">
         <v>11.78</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="Q59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="9">
         <v>82.65</v>
       </c>
       <c r="D60">
@@ -3819,7 +4189,7 @@
       <c r="G60">
         <v>57.86</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="10">
         <v>82.81</v>
       </c>
       <c r="I60">
@@ -3837,18 +4207,21 @@
       <c r="M60">
         <v>27.87</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="10">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="Q60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="9">
         <v>82.17</v>
       </c>
       <c r="D61">
@@ -3863,7 +4236,7 @@
       <c r="G61">
         <v>69.64</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="10">
         <v>86.38</v>
       </c>
       <c r="I61">
@@ -3881,18 +4254,21 @@
       <c r="M61">
         <v>27.83</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="10">
         <v>16.079999999999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="Q61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="9">
         <v>82.56</v>
       </c>
       <c r="D62">
@@ -3907,7 +4283,7 @@
       <c r="G62">
         <v>72.14</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="10">
         <v>80.81</v>
       </c>
       <c r="I62">
@@ -3925,18 +4301,18 @@
       <c r="M62">
         <v>13.16</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="10">
         <v>16.16</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="9">
         <v>81.72</v>
       </c>
       <c r="D63">
@@ -3951,7 +4327,7 @@
       <c r="G63">
         <v>62.68</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="10">
         <v>85.57</v>
       </c>
       <c r="I63">
@@ -3969,18 +4345,18 @@
       <c r="M63">
         <v>22.18</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="10">
         <v>12.03</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="9">
         <v>78.39</v>
       </c>
       <c r="D64">
@@ -3995,7 +4371,7 @@
       <c r="G64">
         <v>45.89</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="10">
         <v>90.9</v>
       </c>
       <c r="I64">
@@ -4013,18 +4389,18 @@
       <c r="M64">
         <v>32.270000000000003</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="10">
         <v>12.48</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="A65" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="9">
         <v>86.9</v>
       </c>
       <c r="D65">
@@ -4039,7 +4415,7 @@
       <c r="G65">
         <v>63.21</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="10">
         <v>89</v>
       </c>
       <c r="I65">
@@ -4057,58 +4433,60 @@
       <c r="M65">
         <v>14.06</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="10">
         <v>9.91</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="A66" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="11">
         <v>86.45</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="12">
         <v>80.11</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="12">
         <v>72.91</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="12">
         <v>72.95</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="12">
         <v>77.14</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="13">
         <v>81.81</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="12">
         <v>7.15</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="12">
         <v>11.65</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="12">
         <v>12.92</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="12">
         <v>20.079999999999998</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="12">
         <v>14.53</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="13">
         <v>16.2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="I27:N27"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:N48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
